--- a/dokumentation/zeitplan.xlsx
+++ b/dokumentation/zeitplan.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alain\Dropbox\Dokumente\ÜK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alain\PhpstormProjects\IPA\dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10896" xr2:uid="{F6A26BF4-E9DA-40B7-B608-864A355BCB16}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Zeitplan" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>IPA Tag</t>
   </si>
@@ -84,27 +84,15 @@
     <t>Ist</t>
   </si>
   <si>
-    <t>Systemübersicht erstellen</t>
-  </si>
-  <si>
     <t>Anforderungen beschreiben</t>
   </si>
   <si>
-    <t>Umsetzung der Funktionalitäten beschreiben</t>
-  </si>
-  <si>
     <t>Prioritäten setzen</t>
   </si>
   <si>
     <t>Testkonzept erstellen</t>
   </si>
   <si>
-    <t>Lösungsvarianten beschreiben</t>
-  </si>
-  <si>
-    <t>Lösungsvarianten Evaluieren</t>
-  </si>
-  <si>
     <t>Arbeitsjournal</t>
   </si>
   <si>
@@ -151,6 +139,12 @@
   </si>
   <si>
     <t>Klassendokumentation</t>
+  </si>
+  <si>
+    <t>Architektur erarbeiten</t>
+  </si>
+  <si>
+    <t>Entscheidungen fällen</t>
   </si>
 </sst>
 </file>
@@ -361,55 +355,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -418,6 +379,43 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,17 +429,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -755,11 +750,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B997F48A-8BFB-49C1-A23D-4EEEF9E9C889}">
-  <dimension ref="A1:R61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186DF619-0B21-43B6-8090-253D3E1E9991}">
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,118 +762,118 @@
     <col min="1" max="1" width="5.88671875" customWidth="1"/>
     <col min="2" max="2" width="28.109375" customWidth="1"/>
     <col min="3" max="3" width="4.44140625" customWidth="1"/>
-    <col min="4" max="18" width="7.21875" customWidth="1"/>
+    <col min="4" max="18" width="5.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="22">
+      <c r="C1" s="33"/>
+      <c r="D1" s="21">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22">
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="21">
         <v>2</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22">
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="21">
         <v>3</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22">
+      <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="21">
         <v>4</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22">
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="21">
         <v>5</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="21"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="23"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="21"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="23"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="28">
+      <c r="C3" s="33"/>
+      <c r="D3" s="30">
         <v>43040</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31">
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="24">
         <v>43041</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="31">
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="24">
         <v>43042</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="31">
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="24">
         <v>43047</v>
       </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="31">
+      <c r="N3" s="25"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="24">
         <v>43049</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="9">
         <v>3</v>
       </c>
       <c r="G4" s="1">
@@ -887,7 +882,7 @@
       <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="9">
         <v>3</v>
       </c>
       <c r="J4" s="1">
@@ -896,7 +891,7 @@
       <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="9">
         <v>3</v>
       </c>
       <c r="M4" s="1">
@@ -905,7 +900,7 @@
       <c r="N4" s="1">
         <v>2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="9">
         <v>3</v>
       </c>
       <c r="P4" s="1">
@@ -914,7 +909,7 @@
       <c r="Q4" s="1">
         <v>2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="9">
         <v>3</v>
       </c>
     </row>
@@ -922,1441 +917,1341 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="25"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="16"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="11"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="11"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="11"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="17">
         <v>1.2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="11"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="11"/>
+      <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="11"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="11"/>
+      <c r="O9" s="5"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="11"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="17">
         <v>1.3</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="11"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="11"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="11"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="11"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="11"/>
+      <c r="O11" s="5"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="11"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="25"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="17">
         <v>2.1</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>19</v>
+      <c r="B13" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="16"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="16"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="16"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="16"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="11"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="11"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="11"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="11"/>
+      <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>20</v>
+      <c r="B15" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="11"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="11"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="11"/>
+      <c r="O15" s="5"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="11"/>
+      <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="11"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="11"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="11"/>
+      <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>21</v>
+      <c r="A17" s="17">
+        <v>2.4</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="11"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="11"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="11"/>
+      <c r="O17" s="6"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="11"/>
+      <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="11"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="11"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="11"/>
+      <c r="R18" s="5"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>22</v>
+      <c r="A19" s="17">
+        <v>2.6</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="34"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="12"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="12"/>
+      <c r="O19" s="5"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="12"/>
+      <c r="R19" s="5"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="11"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="11"/>
+      <c r="O20" s="5"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
+        <v>3.1</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
         <v>17</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="1"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="11"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="11"/>
+      <c r="O22" s="5"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="11"/>
+      <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
+      <c r="A23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="11"/>
+      <c r="L23" s="5"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="11"/>
+      <c r="O23" s="5"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="11"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="1" t="s">
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="11"/>
-    </row>
-    <row r="25" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>3</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="25"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="7"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="11"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="11"/>
+      <c r="O26" s="5"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="11"/>
+      <c r="R26" s="5"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="1" t="s">
-        <v>18</v>
+      <c r="A27" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="11"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="5"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="11"/>
+      <c r="O27" s="5"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="11"/>
-    </row>
-    <row r="28" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>4</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="25"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="5"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>27</v>
+      <c r="A29" s="17">
+        <v>4.3</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="11"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="12"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="11"/>
+      <c r="O29" s="5"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="11"/>
+      <c r="R29" s="5"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="11"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="11"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="11"/>
+      <c r="O30" s="5"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="11"/>
+      <c r="R30" s="5"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>28</v>
+      <c r="A31" s="17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="1"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="3"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="11"/>
+      <c r="O31" s="5"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="11"/>
+      <c r="R31" s="5"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="11"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="11"/>
+      <c r="L32" s="5"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="11"/>
+      <c r="O32" s="5"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="11"/>
+      <c r="R32" s="5"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>29</v>
+      <c r="A33" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="11"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="11"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="5"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="11"/>
+      <c r="R33" s="5"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="5"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="11"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="11"/>
+      <c r="L34" s="5"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="11"/>
+      <c r="O34" s="5"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="11"/>
+      <c r="R34" s="5"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
+      <c r="A35" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="11"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="11"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="5"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="11"/>
+      <c r="R35" s="5"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="11"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="11"/>
+      <c r="L36" s="5"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="11"/>
+      <c r="O36" s="5"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="11"/>
+      <c r="R36" s="5"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="A37" s="17">
+        <v>4.7</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="5"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="11"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="11"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="12"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="11"/>
+      <c r="R37" s="5"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="11"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="11"/>
+      <c r="L38" s="5"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="11"/>
+      <c r="O38" s="5"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="11"/>
+      <c r="R38" s="5"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>34</v>
+      <c r="A39" s="17">
+        <v>4.8</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="11"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="11"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="19"/>
+      <c r="L39" s="5"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="11"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="12"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="11"/>
+      <c r="R39" s="5"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="11"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="11"/>
+      <c r="L40" s="5"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="11"/>
+      <c r="O40" s="5"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="11"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>4.7</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="35" t="s">
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>5</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="14"/>
+    </row>
+    <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="11"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="5"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="11"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="11"/>
+      <c r="L42" s="5"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="1"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="3"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="11"/>
+      <c r="R42" s="5"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>17</v>
+      <c r="A43" s="18"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="11"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="11"/>
+      <c r="L43" s="5"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="19"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="5"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="11"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="1" t="s">
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>6</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="14"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="17">
+        <v>6.1</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="11"/>
-    </row>
-    <row r="45" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>5</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="25"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>17</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="11"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="11"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="11"/>
+      <c r="L46" s="5"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="7"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-      <c r="R46" s="11"/>
+      <c r="R46" s="5"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="1" t="s">
-        <v>18</v>
+      <c r="A47" s="17">
+        <v>6.2</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="11"/>
+      <c r="F47" s="5"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="11"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="11"/>
+      <c r="L47" s="5"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="1"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="3"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="11"/>
-    </row>
-    <row r="48" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>6</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="25"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="35" t="s">
+      <c r="R47" s="5"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="17">
+        <v>6.3</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="11"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="11"/>
+      <c r="I49" s="5"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="11"/>
+      <c r="L49" s="5"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="11"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="12"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="11"/>
+      <c r="F50" s="5"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="11"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="11"/>
+      <c r="L50" s="5"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="11"/>
+      <c r="O50" s="5"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="11"/>
+      <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>6.2</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="35" t="s">
+      <c r="A51" s="17">
+        <v>6.4</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="11"/>
+      <c r="F51" s="5"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="11"/>
+      <c r="I51" s="5"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="11"/>
+      <c r="L51" s="5"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="7"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="11"/>
+      <c r="R51" s="12"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="11"/>
+      <c r="F52" s="5"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="11"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="11"/>
+      <c r="L52" s="5"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-      <c r="O52" s="11"/>
+      <c r="O52" s="5"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="11"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="35" t="s">
+      <c r="R52" s="5"/>
+    </row>
+    <row r="53" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>7</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="14"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="17">
+        <v>7.1</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
         <v>17</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="19"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="11"/>
+      <c r="F54" s="12"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="11"/>
+      <c r="I54" s="12"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="11"/>
+      <c r="L54" s="12"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="11"/>
+      <c r="O54" s="12"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="11"/>
+      <c r="R54" s="12"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
-        <v>6.4</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>17</v>
+      <c r="A55" s="18"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="11"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="11"/>
+      <c r="I55" s="5"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="11"/>
+      <c r="L55" s="5"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="11"/>
+      <c r="O55" s="5"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="R55" s="19"/>
+      <c r="R55" s="5"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="1" t="s">
-        <v>18</v>
+      <c r="A56" s="17">
+        <v>7.2</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="11"/>
+      <c r="F56" s="5"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="11"/>
+      <c r="I56" s="5"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="11"/>
+      <c r="L56" s="5"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="O56" s="11"/>
+      <c r="O56" s="5"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="R56" s="11"/>
-    </row>
-    <row r="57" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>7</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="25"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="19"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="1" t="s">
+      <c r="R56" s="5"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="18"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="11"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="11"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="11"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
+  <mergeCells count="65">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dokumentation/zeitplan.xlsx
+++ b/dokumentation/zeitplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>IPA Tag</t>
   </si>
@@ -144,7 +144,10 @@
     <t>Architektur erarbeiten</t>
   </si>
   <si>
-    <t>Entscheidungen fällen</t>
+    <t xml:space="preserve">Userautenthifikationskonzept </t>
+  </si>
+  <si>
+    <t>Technologieentschiedungen fällen</t>
   </si>
 </sst>
 </file>
@@ -355,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -381,6 +384,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -393,13 +398,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -411,32 +425,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -751,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186DF619-0B21-43B6-8090-253D3E1E9991}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,106 +771,106 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="21">
+      <c r="C1" s="24"/>
+      <c r="D1" s="34">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="21">
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="34">
         <v>2</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="21">
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="34">
         <v>3</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="21">
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="34">
         <v>4</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="21">
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="34">
         <v>5</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="23"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="21" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="21" t="s">
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="21" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="30">
+      <c r="C3" s="24"/>
+      <c r="D3" s="26">
         <v>43040</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="24">
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29">
         <v>43041</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="24">
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="29">
         <v>43042</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="24">
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="29">
         <v>43047</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="24">
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="29">
         <v>43049</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="26"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="31"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -938,10 +942,10 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
@@ -964,12 +968,12 @@
       <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="1"/>
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
@@ -986,10 +990,10 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="19">
         <v>1.2</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
@@ -1012,13 +1016,13 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="35"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
       <c r="H9" s="1"/>
@@ -1034,10 +1038,10 @@
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="19">
         <v>1.3</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1060,13 +1064,13 @@
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="35"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
       <c r="H11" s="1"/>
@@ -1106,10 +1110,10 @@
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="19">
         <v>2.1</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
@@ -1132,14 +1136,14 @@
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
@@ -1154,10 +1158,10 @@
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="A15" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
@@ -1180,8 +1184,8 @@
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1202,10 +1206,10 @@
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="19">
         <v>2.4</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
@@ -1228,8 +1232,8 @@
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1250,10 +1254,10 @@
       <c r="R18" s="5"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="A19" s="19">
         <v>2.6</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
@@ -1276,8 +1280,8 @@
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1322,10 +1326,10 @@
       <c r="R21" s="14"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="19">
         <v>3.1</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C22" t="s">
@@ -1348,8 +1352,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1369,39 +1373,37 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>4</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14"/>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="5"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
+      <c r="A25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1409,7 +1411,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="5"/>
       <c r="M25" s="1"/>
@@ -1419,34 +1421,36 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="5"/>
+    <row r="26" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="14"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
-        <v>4.2</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>24</v>
+      <c r="A27" s="19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -1458,7 +1462,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="5"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="5"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1468,8 +1472,8 @@
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,11 +1494,11 @@
       <c r="R28" s="5"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
-        <v>4.3</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>25</v>
+      <c r="A29" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -1505,9 +1509,9 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="12"/>
+      <c r="L29" s="5"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="5"/>
@@ -1516,8 +1520,8 @@
       <c r="R29" s="5"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1538,11 +1542,11 @@
       <c r="R30" s="5"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>27</v>
+      <c r="A31" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -1554,9 +1558,9 @@
       <c r="H31" s="1"/>
       <c r="I31" s="5"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="12"/>
-      <c r="M31" s="3"/>
+      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="5"/>
       <c r="P31" s="1"/>
@@ -1564,8 +1568,8 @@
       <c r="R31" s="5"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1586,11 +1590,11 @@
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="17">
-        <v>4.5</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>26</v>
+      <c r="A33" s="19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -1603,17 +1607,17 @@
       <c r="I33" s="5"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="5"/>
+      <c r="L33" s="12"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="N33" s="1"/>
       <c r="O33" s="5"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1634,14 +1638,14 @@
       <c r="R34" s="5"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>30</v>
+      <c r="A35" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1651,8 +1655,8 @@
       <c r="I35" s="5"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="1"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="5"/>
       <c r="P35" s="1"/>
@@ -1660,8 +1664,8 @@
       <c r="R35" s="5"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1682,14 +1686,14 @@
       <c r="R36" s="5"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="17">
-        <v>4.7</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>29</v>
+      <c r="A37" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1699,17 +1703,17 @@
       <c r="I37" s="5"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="5"/>
+      <c r="L37" s="12"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="12"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="5"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="5"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="1" t="s">
         <v>18</v>
       </c>
@@ -1730,11 +1734,11 @@
       <c r="R38" s="5"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="17">
-        <v>4.8</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>37</v>
+      <c r="A39" s="19">
+        <v>4.7</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>17</v>
@@ -1749,15 +1753,15 @@
       <c r="K39" s="1"/>
       <c r="L39" s="5"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="3"/>
+      <c r="N39" s="1"/>
       <c r="O39" s="12"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="5"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="1" t="s">
         <v>18</v>
       </c>
@@ -1777,39 +1781,37 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>5</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="14"/>
-    </row>
-    <row r="42" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="16" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
+        <v>4.8</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>17</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="5"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1822,66 +1824,66 @@
       <c r="L42" s="5"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="3"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="5"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="1" t="s">
+    <row r="43" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>5</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="14"/>
+    </row>
+    <row r="44" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="5"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>6</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="14"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="17">
-        <v>6.1</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1895,38 +1897,40 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="5"/>
-      <c r="P45" s="3"/>
+      <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="5"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="5"/>
+    <row r="46" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>6</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="14"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="17">
-        <v>6.2</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>33</v>
+      <c r="A47" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>17</v>
@@ -1948,8 +1952,8 @@
       <c r="R47" s="5"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="1" t="s">
         <v>18</v>
       </c>
@@ -1969,12 +1973,12 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="5"/>
     </row>
-    <row r="49" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17">
-        <v>6.3</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>34</v>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="19">
+        <v>6.2</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>17</v>
@@ -1991,13 +1995,13 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="5"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="12"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="1" t="s">
         <v>18</v>
       </c>
@@ -2017,12 +2021,12 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="5"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="17">
-        <v>6.4</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>35</v>
+    <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>17</v>
@@ -2040,12 +2044,12 @@
       <c r="N51" s="1"/>
       <c r="O51" s="5"/>
       <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
+      <c r="Q51" s="3"/>
       <c r="R51" s="12"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="1" t="s">
         <v>18</v>
       </c>
@@ -2065,107 +2069,107 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>7</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="14"/>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="12"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="17">
-        <v>7.1</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
+      <c r="A54" s="20"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="12"/>
+      <c r="F54" s="5"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="12"/>
+      <c r="I54" s="5"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="12"/>
+      <c r="L54" s="5"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="12"/>
+      <c r="O54" s="5"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="12"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="5"/>
+      <c r="R54" s="5"/>
+    </row>
+    <row r="55" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>7</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="14"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="17">
-        <v>7.2</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>36</v>
+      <c r="A56" s="19">
+        <v>7.1</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="5"/>
+      <c r="F56" s="12"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="5"/>
+      <c r="I56" s="12"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="5"/>
+      <c r="L56" s="12"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="O56" s="5"/>
+      <c r="O56" s="12"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="R56" s="5"/>
+      <c r="R56" s="12"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="1" t="s">
         <v>18</v>
       </c>
@@ -2185,38 +2189,83 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="5"/>
     </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="19">
+        <v>7.2</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="5"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="20"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
+  <mergeCells count="67">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A22:A23"/>
@@ -2227,31 +2276,36 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dokumentation/zeitplan.xlsx
+++ b/dokumentation/zeitplan.xlsx
@@ -386,6 +386,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,18 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,16 +429,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186DF619-0B21-43B6-8090-253D3E1E9991}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,79 +771,79 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="34">
+      <c r="C1" s="28"/>
+      <c r="D1" s="20">
         <v>1</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="34">
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="20">
         <v>2</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="34">
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="20">
         <v>3</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="34">
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="20">
         <v>4</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="34">
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="20">
         <v>5</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="27" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="34" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="34" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="34" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="26">
+      <c r="C3" s="28"/>
+      <c r="D3" s="34">
         <v>43040</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="29">
         <v>43041</v>
       </c>
@@ -867,10 +867,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -942,10 +942,10 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+      <c r="A6" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
@@ -968,8 +968,8 @@
       <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -990,10 +990,10 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+      <c r="A8" s="23">
         <v>1.2</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
@@ -1016,8 +1016,8 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1038,10 +1038,10 @@
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="23">
         <v>1.3</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1064,8 +1064,8 @@
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1110,10 +1110,10 @@
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="23">
         <v>2.1</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
@@ -1136,15 +1136,15 @@
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="17"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="1"/>
       <c r="I14" s="5"/>
       <c r="J14" s="1"/>
@@ -1158,10 +1158,10 @@
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
@@ -1184,15 +1184,15 @@
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="1"/>
       <c r="I16" s="5"/>
       <c r="J16" s="1"/>
@@ -1206,10 +1206,10 @@
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
-        <v>2.4</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
@@ -1232,8 +1232,8 @@
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="5"/>
@@ -1254,10 +1254,10 @@
       <c r="R18" s="5"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
-        <v>2.6</v>
-      </c>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="23">
+        <v>2.4</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
@@ -1280,8 +1280,8 @@
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1289,8 +1289,8 @@
       <c r="E20" s="1"/>
       <c r="F20" s="5"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="5"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="5"/>
@@ -1326,10 +1326,10 @@
       <c r="R21" s="14"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+      <c r="A22" s="23">
         <v>3.1</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C22" t="s">
@@ -1352,8 +1352,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1374,13 +1374,13 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+      <c r="A24" s="23">
         <v>3.2</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="1"/>
@@ -1400,8 +1400,8 @@
       <c r="R24" s="5"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1446,10 +1446,10 @@
       <c r="R26" s="14"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+      <c r="A27" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
@@ -1472,8 +1472,8 @@
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1494,10 +1494,10 @@
       <c r="R28" s="5"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
+      <c r="A29" s="23">
         <v>4.2</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C29" t="s">
@@ -1520,8 +1520,8 @@
       <c r="R29" s="5"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1542,10 +1542,10 @@
       <c r="R30" s="5"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+      <c r="A31" s="23">
         <v>4.3</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C31" t="s">
@@ -1568,8 +1568,8 @@
       <c r="R31" s="5"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1590,10 +1590,10 @@
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
+      <c r="A33" s="23">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C33" t="s">
@@ -1616,8 +1616,8 @@
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1638,10 +1638,10 @@
       <c r="R34" s="5"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
+      <c r="A35" s="23">
         <v>4.5</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C35" t="s">
@@ -1664,8 +1664,8 @@
       <c r="R35" s="5"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1686,10 +1686,10 @@
       <c r="R36" s="5"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
+      <c r="A37" s="23">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -1712,8 +1712,8 @@
       <c r="R37" s="5"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="1" t="s">
         <v>18</v>
       </c>
@@ -1734,10 +1734,10 @@
       <c r="R38" s="5"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="19">
+      <c r="A39" s="23">
         <v>4.7</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -1760,8 +1760,8 @@
       <c r="R39" s="5"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="22"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="1" t="s">
         <v>18</v>
       </c>
@@ -1782,10 +1782,10 @@
       <c r="R40" s="5"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="19">
+      <c r="A41" s="23">
         <v>4.8</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -1808,8 +1808,8 @@
       <c r="R41" s="5"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="1" t="s">
         <v>18</v>
       </c>
@@ -1854,10 +1854,10 @@
       <c r="R43" s="14"/>
     </row>
     <row r="44" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19">
+      <c r="A44" s="23">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="16" t="s">
@@ -1880,8 +1880,8 @@
       <c r="R44" s="5"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="22"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="1" t="s">
         <v>18</v>
       </c>
@@ -1926,10 +1926,10 @@
       <c r="R46" s="14"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="19">
+      <c r="A47" s="23">
         <v>6.1</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -1952,8 +1952,8 @@
       <c r="R47" s="5"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="22"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="1" t="s">
         <v>18</v>
       </c>
@@ -1974,10 +1974,10 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="19">
+      <c r="A49" s="23">
         <v>6.2</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -2000,8 +2000,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="1" t="s">
         <v>18</v>
       </c>
@@ -2022,10 +2022,10 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19">
+      <c r="A51" s="23">
         <v>6.3</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="16" t="s">
@@ -2048,8 +2048,8 @@
       <c r="R51" s="12"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="1" t="s">
         <v>18</v>
       </c>
@@ -2070,10 +2070,10 @@
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="19">
+      <c r="A53" s="23">
         <v>6.4</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -2096,8 +2096,8 @@
       <c r="R53" s="12"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="1" t="s">
         <v>18</v>
       </c>
@@ -2142,10 +2142,10 @@
       <c r="R55" s="14"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="19">
+      <c r="A56" s="23">
         <v>7.1</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="25" t="s">
         <v>22</v>
       </c>
       <c r="C56" t="s">
@@ -2168,14 +2168,14 @@
       <c r="R56" s="12"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="5"/>
+      <c r="F57" s="18"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="5"/>
@@ -2190,10 +2190,10 @@
       <c r="R57" s="5"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" s="19">
+      <c r="A58" s="23">
         <v>7.2</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C58" t="s">
@@ -2216,8 +2216,8 @@
       <c r="R58" s="5"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="22"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="1" t="s">
         <v>18</v>
       </c>
@@ -2225,7 +2225,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="5"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="H59" s="17"/>
       <c r="I59" s="5"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -2239,6 +2239,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
@@ -2255,58 +2306,8 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dokumentation/zeitplan.xlsx
+++ b/dokumentation/zeitplan.xlsx
@@ -171,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +190,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -358,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,15 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,10 +405,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -423,23 +438,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,7 +770,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,31 +787,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="28"/>
-      <c r="D1" s="20">
+      <c r="D1" s="24">
         <v>1</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="20">
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="24">
         <v>2</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="20">
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="24">
         <v>3</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="20">
+      <c r="K1" s="25"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="24">
         <v>4</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="20">
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="24">
         <v>5</v>
       </c>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="22"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="26"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -810,28 +822,28 @@
       <c r="D2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="20" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="20" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="20" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="20" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="26"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -839,31 +851,31 @@
         <v>2</v>
       </c>
       <c r="C3" s="28"/>
-      <c r="D3" s="34">
+      <c r="D3" s="29">
         <v>43040</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="29">
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32">
         <v>43041</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="29">
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="32">
         <v>43042</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="29">
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="32">
         <v>43047</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="29">
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="32">
         <v>43049</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -925,8 +937,8 @@
         <v>4</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -942,10 +954,10 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="A6" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
@@ -968,8 +980,8 @@
       <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -990,10 +1002,10 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="20">
         <v>1.2</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
@@ -1016,8 +1028,8 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1038,10 +1050,10 @@
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+      <c r="A10" s="20">
         <v>1.3</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1064,8 +1076,8 @@
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1095,10 +1107,10 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -1110,10 +1122,10 @@
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
+      <c r="A13" s="20">
         <v>2.1</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
@@ -1136,8 +1148,8 @@
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1158,10 +1170,10 @@
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
+      <c r="A15" s="20">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
@@ -1184,8 +1196,8 @@
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1206,10 +1218,10 @@
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="20">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
@@ -1232,8 +1244,8 @@
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1254,10 +1266,10 @@
       <c r="R18" s="5"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="20">
         <v>2.4</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
@@ -1280,8 +1292,8 @@
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1291,7 +1303,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="1"/>
       <c r="L20" s="5"/>
       <c r="M20" s="1"/>
@@ -1315,7 +1327,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
@@ -1326,10 +1338,10 @@
       <c r="R21" s="14"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="20">
         <v>3.1</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C22" t="s">
@@ -1352,8 +1364,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1363,7 +1375,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="1"/>
       <c r="L23" s="5"/>
       <c r="M23" s="1"/>
@@ -1374,10 +1386,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="20">
         <v>3.2</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="19" t="s">
@@ -1400,8 +1412,8 @@
       <c r="R24" s="5"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1411,7 +1423,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="1"/>
       <c r="L25" s="5"/>
       <c r="M25" s="1"/>
@@ -1435,21 +1447,21 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="14"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="20">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
@@ -1472,8 +1484,8 @@
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1494,10 +1506,10 @@
       <c r="R28" s="5"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="20">
         <v>4.2</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C29" t="s">
@@ -1520,8 +1532,8 @@
       <c r="R29" s="5"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1542,10 +1554,10 @@
       <c r="R30" s="5"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+      <c r="A31" s="20">
         <v>4.3</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C31" t="s">
@@ -1568,8 +1580,8 @@
       <c r="R31" s="5"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1590,10 +1602,10 @@
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="A33" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C33" t="s">
@@ -1616,8 +1628,8 @@
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1638,10 +1650,10 @@
       <c r="R34" s="5"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="23">
+      <c r="A35" s="20">
         <v>4.5</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C35" t="s">
@@ -1664,8 +1676,8 @@
       <c r="R35" s="5"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1686,10 +1698,10 @@
       <c r="R36" s="5"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="23">
+      <c r="A37" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -1712,8 +1724,8 @@
       <c r="R37" s="5"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="1" t="s">
         <v>18</v>
       </c>
@@ -1734,10 +1746,10 @@
       <c r="R38" s="5"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="23">
+      <c r="A39" s="20">
         <v>4.7</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -1760,8 +1772,8 @@
       <c r="R39" s="5"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="1" t="s">
         <v>18</v>
       </c>
@@ -1782,10 +1794,10 @@
       <c r="R40" s="5"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="23">
+      <c r="A41" s="20">
         <v>4.8</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -1808,8 +1820,8 @@
       <c r="R41" s="5"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="26"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="1" t="s">
         <v>18</v>
       </c>
@@ -1848,16 +1860,16 @@
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
       <c r="Q43" s="13"/>
       <c r="R43" s="14"/>
     </row>
     <row r="44" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23">
+      <c r="A44" s="20">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="16" t="s">
@@ -1880,8 +1892,8 @@
       <c r="R44" s="5"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="1" t="s">
         <v>18</v>
       </c>
@@ -1921,15 +1933,15 @@
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="14"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="39"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="23">
+      <c r="A47" s="20">
         <v>6.1</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -1952,8 +1964,8 @@
       <c r="R47" s="5"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="26"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="1" t="s">
         <v>18</v>
       </c>
@@ -1974,10 +1986,10 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="23">
+      <c r="A49" s="20">
         <v>6.2</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -2000,8 +2012,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="26"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="1" t="s">
         <v>18</v>
       </c>
@@ -2022,10 +2034,10 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
+      <c r="A51" s="20">
         <v>6.3</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="16" t="s">
@@ -2048,8 +2060,8 @@
       <c r="R51" s="12"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="26"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="1" t="s">
         <v>18</v>
       </c>
@@ -2070,10 +2082,10 @@
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="23">
+      <c r="A53" s="20">
         <v>6.4</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -2096,8 +2108,8 @@
       <c r="R53" s="12"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="26"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="1" t="s">
         <v>18</v>
       </c>
@@ -2142,10 +2154,10 @@
       <c r="R55" s="14"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="23">
+      <c r="A56" s="20">
         <v>7.1</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C56" t="s">
@@ -2168,8 +2180,8 @@
       <c r="R56" s="12"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="1" t="s">
         <v>18</v>
       </c>
@@ -2190,10 +2202,10 @@
       <c r="R57" s="5"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" s="23">
+      <c r="A58" s="20">
         <v>7.2</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C58" t="s">
@@ -2216,8 +2228,8 @@
       <c r="R58" s="5"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
-      <c r="B59" s="26"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="1" t="s">
         <v>18</v>
       </c>
@@ -2239,57 +2251,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
@@ -2306,6 +2267,57 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>

--- a/dokumentation/zeitplan.xlsx
+++ b/dokumentation/zeitplan.xlsx
@@ -393,6 +393,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,19 +420,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -429,29 +450,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,7 +770,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,106 +783,106 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="24">
+      <c r="C1" s="30"/>
+      <c r="D1" s="22">
         <v>1</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="24">
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="22">
         <v>2</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="24">
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="22">
         <v>3</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="24">
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="22">
         <v>4</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="24">
+      <c r="N1" s="23"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="22">
         <v>5</v>
       </c>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="26"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="24"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="24" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="24" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="24" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="24" t="s">
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="26"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29">
+      <c r="C3" s="30"/>
+      <c r="D3" s="36">
         <v>43040</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32">
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="31">
         <v>43041</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="32">
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="31">
         <v>43042</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="32">
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="31">
         <v>43047</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="32">
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="31">
         <v>43049</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="34"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="33"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -937,8 +937,8 @@
         <v>4</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -954,10 +954,10 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="A6" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="39" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
@@ -980,8 +980,8 @@
       <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1002,10 +1002,10 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="25">
         <v>1.2</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
@@ -1028,8 +1028,8 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1050,10 +1050,10 @@
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="A10" s="25">
         <v>1.3</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1076,8 +1076,8 @@
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1107,10 +1107,10 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -1122,10 +1122,10 @@
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
+      <c r="A13" s="25">
         <v>2.1</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
@@ -1148,8 +1148,8 @@
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1170,10 +1170,10 @@
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
+      <c r="A15" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
@@ -1196,8 +1196,8 @@
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1218,10 +1218,10 @@
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+      <c r="A17" s="25">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
@@ -1244,8 +1244,8 @@
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1266,10 +1266,10 @@
       <c r="R18" s="5"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="A19" s="25">
         <v>2.4</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
@@ -1292,8 +1292,8 @@
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="38"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
@@ -1338,10 +1338,10 @@
       <c r="R21" s="14"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
+      <c r="A22" s="25">
         <v>3.1</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="27" t="s">
         <v>39</v>
       </c>
       <c r="C22" t="s">
@@ -1364,8 +1364,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1386,10 +1386,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
+      <c r="A24" s="25">
         <v>3.2</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="19" t="s">
@@ -1412,8 +1412,8 @@
       <c r="R24" s="5"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,21 +1447,21 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="14"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
+      <c r="A27" s="25">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
@@ -1484,8 +1484,8 @@
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="17"/>
       <c r="K28" s="1"/>
       <c r="L28" s="5"/>
       <c r="M28" s="1"/>
@@ -1506,10 +1506,10 @@
       <c r="R28" s="5"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="20">
+      <c r="A29" s="25">
         <v>4.2</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C29" t="s">
@@ -1532,8 +1532,8 @@
       <c r="R29" s="5"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="1"/>
       <c r="L30" s="5"/>
       <c r="M30" s="1"/>
@@ -1554,10 +1554,10 @@
       <c r="R30" s="5"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="20">
+      <c r="A31" s="25">
         <v>4.3</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C31" t="s">
@@ -1580,8 +1580,8 @@
       <c r="R31" s="5"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1592,9 +1592,9 @@
       <c r="H32" s="1"/>
       <c r="I32" s="5"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="1"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="17"/>
       <c r="N32" s="1"/>
       <c r="O32" s="5"/>
       <c r="P32" s="1"/>
@@ -1602,10 +1602,10 @@
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="20">
+      <c r="A33" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C33" t="s">
@@ -1628,8 +1628,8 @@
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1642,18 +1642,18 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
       <c r="O34" s="5"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="5"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="20">
+      <c r="A35" s="25">
         <v>4.5</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C35" t="s">
@@ -1676,8 +1676,8 @@
       <c r="R35" s="5"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1698,10 +1698,10 @@
       <c r="R36" s="5"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="20">
+      <c r="A37" s="25">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -1724,8 +1724,8 @@
       <c r="R37" s="5"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="1" t="s">
         <v>18</v>
       </c>
@@ -1746,10 +1746,10 @@
       <c r="R38" s="5"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="20">
+      <c r="A39" s="25">
         <v>4.7</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -1772,8 +1772,8 @@
       <c r="R39" s="5"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="1" t="s">
         <v>18</v>
       </c>
@@ -1794,10 +1794,10 @@
       <c r="R40" s="5"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="20">
+      <c r="A41" s="25">
         <v>4.8</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -1820,8 +1820,8 @@
       <c r="R41" s="5"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="1" t="s">
         <v>18</v>
       </c>
@@ -1860,16 +1860,16 @@
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
       <c r="Q43" s="13"/>
       <c r="R43" s="14"/>
     </row>
     <row r="44" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20">
+      <c r="A44" s="25">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="16" t="s">
@@ -1892,8 +1892,8 @@
       <c r="R44" s="5"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="1" t="s">
         <v>18</v>
       </c>
@@ -1933,15 +1933,15 @@
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="39"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="21"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="20">
+      <c r="A47" s="25">
         <v>6.1</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -1964,8 +1964,8 @@
       <c r="R47" s="5"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="1" t="s">
         <v>18</v>
       </c>
@@ -1986,10 +1986,10 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="20">
+      <c r="A49" s="25">
         <v>6.2</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -2012,8 +2012,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="1" t="s">
         <v>18</v>
       </c>
@@ -2034,10 +2034,10 @@
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="20">
+      <c r="A51" s="25">
         <v>6.3</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="16" t="s">
@@ -2060,8 +2060,8 @@
       <c r="R51" s="12"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="23"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="1" t="s">
         <v>18</v>
       </c>
@@ -2082,10 +2082,10 @@
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="20">
+      <c r="A53" s="25">
         <v>6.4</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -2108,8 +2108,8 @@
       <c r="R53" s="12"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
-      <c r="B54" s="23"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="1" t="s">
         <v>18</v>
       </c>
@@ -2154,10 +2154,10 @@
       <c r="R55" s="14"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="20">
+      <c r="A56" s="25">
         <v>7.1</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C56" t="s">
@@ -2180,8 +2180,8 @@
       <c r="R56" s="12"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="1" t="s">
         <v>18</v>
       </c>
@@ -2202,10 +2202,10 @@
       <c r="R57" s="5"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" s="20">
+      <c r="A58" s="25">
         <v>7.2</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C58" t="s">
@@ -2228,8 +2228,8 @@
       <c r="R58" s="5"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="1" t="s">
         <v>18</v>
       </c>
@@ -2251,6 +2251,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
@@ -2267,57 +2318,6 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>

--- a/dokumentation/zeitplan.xlsx
+++ b/dokumentation/zeitplan.xlsx
@@ -399,15 +399,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,10 +411,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -435,23 +444,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186DF619-0B21-43B6-8090-253D3E1E9991}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="69" workbookViewId="0">
+      <selection activeCell="U48" sqref="U48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,31 +787,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="30"/>
-      <c r="D1" s="22">
+      <c r="D1" s="26">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="22">
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="26">
         <v>2</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="22">
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="26">
         <v>3</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="22">
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="26">
         <v>4</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="22">
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="26">
         <v>5</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="24"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="28"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -822,28 +822,28 @@
       <c r="D2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="22" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="22" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -851,31 +851,31 @@
         <v>2</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="36">
+      <c r="D3" s="31">
         <v>43040</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="31">
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34">
         <v>43041</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="31">
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="34">
         <v>43042</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="31">
+      <c r="K3" s="35"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="34">
         <v>43047</v>
       </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="31">
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="34">
         <v>43049</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="36"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -954,10 +954,10 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
@@ -980,8 +980,8 @@
       <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1002,10 +1002,10 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="22">
         <v>1.2</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
@@ -1028,8 +1028,8 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1050,10 +1050,10 @@
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="A10" s="22">
         <v>1.3</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1076,8 +1076,8 @@
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1122,10 +1122,10 @@
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="A13" s="22">
         <v>2.1</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
@@ -1148,8 +1148,8 @@
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1170,10 +1170,10 @@
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
+      <c r="A15" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
@@ -1196,8 +1196,8 @@
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1218,10 +1218,10 @@
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
+      <c r="A17" s="22">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
@@ -1244,8 +1244,8 @@
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1266,10 +1266,10 @@
       <c r="R18" s="5"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="A19" s="22">
         <v>2.4</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
@@ -1292,8 +1292,8 @@
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1338,10 +1338,10 @@
       <c r="R21" s="14"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="A22" s="22">
         <v>3.1</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C22" t="s">
@@ -1364,8 +1364,8 @@
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1386,10 +1386,10 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
+      <c r="A24" s="22">
         <v>3.2</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="19" t="s">
@@ -1412,8 +1412,8 @@
       <c r="R24" s="5"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1458,10 +1458,10 @@
       <c r="R26" s="14"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="22">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
@@ -1484,8 +1484,8 @@
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1506,10 +1506,10 @@
       <c r="R28" s="5"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="22">
         <v>4.2</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C29" t="s">
@@ -1532,8 +1532,8 @@
       <c r="R29" s="5"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1554,10 +1554,10 @@
       <c r="R30" s="5"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
+      <c r="A31" s="22">
         <v>4.3</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C31" t="s">
@@ -1580,8 +1580,8 @@
       <c r="R31" s="5"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1602,10 +1602,10 @@
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="25">
+      <c r="A33" s="22">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C33" t="s">
@@ -1628,8 +1628,8 @@
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1650,10 +1650,10 @@
       <c r="R34" s="5"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
+      <c r="A35" s="22">
         <v>4.5</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C35" t="s">
@@ -1676,8 +1676,8 @@
       <c r="R35" s="5"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1691,17 +1691,17 @@
       <c r="K36" s="1"/>
       <c r="L36" s="5"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="5"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="18"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="5"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="25">
+      <c r="A37" s="22">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -1724,8 +1724,8 @@
       <c r="R37" s="5"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="1" t="s">
         <v>18</v>
       </c>
@@ -1739,17 +1739,17 @@
       <c r="K38" s="1"/>
       <c r="L38" s="5"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="N38" s="17"/>
       <c r="O38" s="5"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="5"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="25">
+      <c r="A39" s="22">
         <v>4.7</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -1772,8 +1772,8 @@
       <c r="R39" s="5"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="1" t="s">
         <v>18</v>
       </c>
@@ -1788,16 +1788,16 @@
       <c r="L40" s="5"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="1"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="17"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="5"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="25">
+      <c r="A41" s="22">
         <v>4.8</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -1820,8 +1820,8 @@
       <c r="R41" s="5"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="1" t="s">
         <v>18</v>
       </c>
@@ -1837,9 +1837,9 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="5"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="5"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="18"/>
     </row>
     <row r="43" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
@@ -1866,10 +1866,10 @@
       <c r="R43" s="14"/>
     </row>
     <row r="44" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25">
+      <c r="A44" s="22">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="16" t="s">
@@ -1892,8 +1892,8 @@
       <c r="R44" s="5"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="1" t="s">
         <v>18</v>
       </c>
@@ -1909,9 +1909,9 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="5"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="5"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="18"/>
     </row>
     <row r="46" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
@@ -1938,10 +1938,10 @@
       <c r="R46" s="21"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="25">
+      <c r="A47" s="22">
         <v>6.1</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="16" t="s">
@@ -1964,8 +1964,8 @@
       <c r="R47" s="5"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
-      <c r="B48" s="28"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="1" t="s">
         <v>18</v>
       </c>
@@ -1986,10 +1986,10 @@
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="25">
+      <c r="A49" s="22">
         <v>6.2</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C49" s="16" t="s">
@@ -2012,8 +2012,8 @@
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="1" t="s">
         <v>18</v>
       </c>
@@ -2031,13 +2031,13 @@
       <c r="O50" s="5"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="5"/>
+      <c r="R50" s="18"/>
     </row>
     <row r="51" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25">
+      <c r="A51" s="22">
         <v>6.3</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="16" t="s">
@@ -2060,8 +2060,8 @@
       <c r="R51" s="12"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
-      <c r="B52" s="28"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="1" t="s">
         <v>18</v>
       </c>
@@ -2079,13 +2079,13 @@
       <c r="O52" s="5"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="5"/>
+      <c r="R52" s="18"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="25">
+      <c r="A53" s="22">
         <v>6.4</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -2108,8 +2108,8 @@
       <c r="R53" s="12"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="1" t="s">
         <v>18</v>
       </c>
@@ -2127,7 +2127,7 @@
       <c r="O54" s="5"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="5"/>
+      <c r="R54" s="18"/>
     </row>
     <row r="55" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
@@ -2154,10 +2154,10 @@
       <c r="R55" s="14"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="25">
+      <c r="A56" s="22">
         <v>7.1</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C56" t="s">
@@ -2180,8 +2180,8 @@
       <c r="R56" s="12"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
-      <c r="B57" s="28"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="1" t="s">
         <v>18</v>
       </c>
@@ -2190,22 +2190,22 @@
       <c r="F57" s="18"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="5"/>
+      <c r="I57" s="18"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="5"/>
+      <c r="L57" s="18"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57" s="5"/>
+      <c r="O57" s="18"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-      <c r="R57" s="5"/>
+      <c r="R57" s="18"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" s="25">
+      <c r="A58" s="22">
         <v>7.2</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C58" t="s">
@@ -2228,8 +2228,8 @@
       <c r="R58" s="5"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="26"/>
-      <c r="B59" s="28"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="1" t="s">
         <v>18</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="1"/>
+      <c r="M59" s="17"/>
       <c r="N59" s="1"/>
       <c r="O59" s="5"/>
       <c r="P59" s="1"/>
@@ -2251,57 +2251,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
@@ -2318,6 +2267,57 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
